--- a/ig/nr-rm-useless-descr/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-rm-useless-descr/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:42:38+00:00</t>
+    <t>2023-08-29T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -145,6 +145,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}iti-mhd-repl:a DocumetReference replacements needs to relate to a superseded DocumentReference {relatesTo.empty() or (relatesTo.code='replaces' implies relatesTo.target.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -204,6 +208,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -273,10 +281,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>version : [0..1] Numerique</t>
@@ -2312,19 +2316,19 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>35</v>
@@ -2336,18 +2340,18 @@
         <v>35</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AS1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2358,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2367,19 +2371,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2429,13 +2433,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2473,10 +2477,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2487,7 +2491,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2496,16 +2500,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2556,19 +2560,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2600,10 +2604,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2614,7 +2618,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
@@ -2626,13 +2630,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2683,13 +2687,13 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
@@ -2704,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>35</v>
@@ -2727,14 +2731,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2753,16 +2757,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2800,19 +2804,19 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2824,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2833,7 +2837,7 @@
         <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>35</v>
@@ -2856,10 +2860,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2870,28 +2874,28 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2941,19 +2945,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2980,15 +2984,15 @@
         <v>35</v>
       </c>
       <c r="AS6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2999,7 +3003,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -3008,19 +3012,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3070,19 +3074,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -3114,10 +3118,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3128,7 +3132,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -3137,19 +3141,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3199,19 +3203,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -3243,10 +3247,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3266,19 +3270,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3328,7 +3332,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3340,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3364,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="AR9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS9" t="s" s="2">
         <v>35</v>
@@ -3372,10 +3376,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3395,19 +3399,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3433,13 +3437,13 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>35</v>
@@ -3457,7 +3461,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3469,7 +3473,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3501,10 +3505,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3524,19 +3528,19 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3562,13 +3566,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -3586,7 +3590,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3598,7 +3602,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3630,10 +3634,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3644,28 +3648,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3715,19 +3719,19 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3759,10 +3763,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3773,7 +3777,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3785,16 +3789,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3820,13 +3824,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3844,19 +3848,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3888,21 +3892,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3914,16 +3918,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3973,19 +3977,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3994,7 +3998,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -4017,24 +4021,24 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>35</v>
@@ -4043,16 +4047,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4102,7 +4106,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -4123,7 +4127,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -4146,10 +4150,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4172,13 +4176,13 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4217,17 +4221,17 @@
         <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -4239,7 +4243,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -4271,13 +4275,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>35</v>
@@ -4287,10 +4291,10 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>35</v>
@@ -4299,13 +4303,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4356,7 +4360,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4365,10 +4369,10 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
@@ -4395,15 +4399,15 @@
         <v>35</v>
       </c>
       <c r="AS17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4420,19 +4424,19 @@
         <v>35</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4483,7 +4487,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4495,7 +4499,7 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
@@ -4527,10 +4531,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4538,13 +4542,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>35</v>
@@ -4553,19 +4557,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4614,19 +4618,19 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
@@ -4635,7 +4639,7 @@
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
@@ -4644,24 +4648,24 @@
         <v>35</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AS19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4675,22 +4679,22 @@
         <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4729,17 +4733,17 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4751,45 +4755,45 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AR20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AS20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>35</v>
@@ -4811,13 +4815,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4868,7 +4872,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4877,10 +4881,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
@@ -4889,7 +4893,7 @@
         <v>35</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
@@ -4898,7 +4902,7 @@
         <v>35</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4912,10 +4916,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4923,31 +4927,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4973,11 +4977,11 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -4995,54 +4999,54 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AS22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5062,19 +5066,19 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5100,13 +5104,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -5124,37 +5128,37 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>35</v>
@@ -5168,10 +5172,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5179,31 +5183,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5229,11 +5233,11 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -5251,86 +5255,86 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AS24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5356,11 +5360,11 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -5378,7 +5382,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -5390,42 +5394,42 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AS25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5433,28 +5437,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5505,86 +5509,86 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AR26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AS26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5634,34 +5638,34 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5678,10 +5682,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5689,31 +5693,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5763,7 +5767,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5775,42 +5779,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AS28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5818,13 +5822,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>35</v>
@@ -5833,16 +5837,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5892,54 +5896,54 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AS29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5950,7 +5954,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5962,16 +5966,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6021,28 +6025,28 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -6057,7 +6061,7 @@
         <v>35</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6065,10 +6069,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6082,25 +6086,25 @@
         <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6150,7 +6154,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6162,16 +6166,16 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -6183,10 +6187,10 @@
         <v>35</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6194,10 +6198,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6208,7 +6212,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -6220,13 +6224,13 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6277,13 +6281,13 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
@@ -6298,7 +6302,7 @@
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>35</v>
@@ -6321,14 +6325,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6347,16 +6351,16 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6406,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -6418,7 +6422,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -6427,7 +6431,7 @@
         <v>35</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -6450,14 +6454,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6470,25 +6474,25 @@
         <v>35</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6537,7 +6541,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6549,7 +6553,7 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -6558,7 +6562,7 @@
         <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6581,10 +6585,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6592,10 +6596,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -6604,19 +6608,19 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6642,13 +6646,13 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
@@ -6666,28 +6670,28 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>35</v>
@@ -6699,21 +6703,21 @@
         <v>35</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AS35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6721,10 +6725,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -6733,16 +6737,16 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6793,28 +6797,28 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>35</v>
@@ -6826,21 +6830,21 @@
         <v>35</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AS36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6851,31 +6855,31 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6924,19 +6928,19 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6945,7 +6949,7 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6954,24 +6958,24 @@
         <v>35</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AS37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6979,34 +6983,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7031,13 +7035,13 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
@@ -7055,7 +7059,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7067,42 +7071,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AS38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7110,28 +7114,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7182,10 +7186,10 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
@@ -7194,16 +7198,16 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7226,10 +7230,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7240,7 +7244,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -7252,13 +7256,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7309,13 +7313,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -7330,7 +7334,7 @@
         <v>35</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
@@ -7353,14 +7357,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7379,16 +7383,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7438,7 +7442,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -7450,7 +7454,7 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
@@ -7459,7 +7463,7 @@
         <v>35</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>35</v>
@@ -7482,14 +7486,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7502,25 +7506,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7569,7 +7573,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7581,7 +7585,7 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
@@ -7590,7 +7594,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7613,10 +7617,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7624,10 +7628,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -7636,16 +7640,16 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7696,40 +7700,40 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7740,10 +7744,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7754,7 +7758,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -7766,13 +7770,13 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7823,13 +7827,13 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
@@ -7844,7 +7848,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7867,14 +7871,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7893,16 +7897,16 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7940,19 +7944,19 @@
         <v>35</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7964,7 +7968,7 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7973,7 +7977,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -7996,10 +8000,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8007,10 +8011,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -8019,20 +8023,20 @@
         <v>35</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8045,7 +8049,7 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>35</v>
@@ -8057,13 +8061,13 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -8081,19 +8085,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -8102,7 +8106,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -8111,13 +8115,13 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8125,10 +8129,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8136,32 +8140,32 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8174,7 +8178,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -8186,13 +8190,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -8210,19 +8214,19 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -8231,7 +8235,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -8246,18 +8250,18 @@
         <v>35</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AS47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8280,19 +8284,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8341,19 +8345,19 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -8362,7 +8366,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -8371,7 +8375,7 @@
         <v>35</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8385,10 +8389,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8396,10 +8400,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -8408,22 +8412,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8436,7 +8440,7 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>35</v>
@@ -8472,19 +8476,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -8493,7 +8497,7 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>35</v>
@@ -8502,24 +8506,24 @@
         <v>35</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AS49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8527,10 +8531,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -8539,22 +8543,22 @@
         <v>35</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8603,19 +8607,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8624,7 +8628,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8639,7 +8643,7 @@
         <v>35</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8647,10 +8651,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8658,10 +8662,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -8670,22 +8674,22 @@
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8734,19 +8738,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8755,7 +8759,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8770,7 +8774,7 @@
         <v>35</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8778,10 +8782,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8789,10 +8793,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -8801,20 +8805,20 @@
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8827,7 +8831,7 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>35</v>
@@ -8863,19 +8867,19 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
@@ -8884,7 +8888,7 @@
         <v>35</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>35</v>
@@ -8899,18 +8903,18 @@
         <v>35</v>
       </c>
       <c r="AR52" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AS52" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8918,32 +8922,32 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -8992,19 +8996,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -9013,7 +9017,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9028,18 +9032,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AS53" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9047,31 +9051,31 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9097,11 +9101,11 @@
         <v>35</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>35</v>
@@ -9119,31 +9123,31 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>35</v>
@@ -9152,21 +9156,21 @@
         <v>35</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AR54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AS54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9174,31 +9178,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9248,19 +9252,19 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -9269,7 +9273,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9292,10 +9296,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9306,7 +9310,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>35</v>
@@ -9318,13 +9322,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9375,13 +9379,13 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>35</v>
@@ -9396,7 +9400,7 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>35</v>
@@ -9419,14 +9423,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9445,16 +9449,16 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9504,7 +9508,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -9516,7 +9520,7 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
@@ -9525,7 +9529,7 @@
         <v>35</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>35</v>
@@ -9548,14 +9552,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9568,25 +9572,25 @@
         <v>35</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9635,7 +9639,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9647,7 +9651,7 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
@@ -9656,7 +9660,7 @@
         <v>35</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9679,10 +9683,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9705,13 +9709,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9762,7 +9766,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9774,22 +9778,22 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>35</v>
@@ -9798,7 +9802,7 @@
         <v>35</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9806,10 +9810,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9820,7 +9824,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -9832,16 +9836,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9867,13 +9871,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9891,7 +9895,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9903,16 +9907,16 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>35</v>
@@ -9924,21 +9928,21 @@
         <v>35</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AS60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9946,28 +9950,28 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10018,31 +10022,31 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -10051,7 +10055,7 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10062,10 +10066,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10076,7 +10080,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -10088,13 +10092,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10145,13 +10149,13 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
@@ -10166,7 +10170,7 @@
         <v>35</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>35</v>
@@ -10189,14 +10193,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10215,16 +10219,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10262,19 +10266,19 @@
         <v>35</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -10286,7 +10290,7 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
@@ -10295,7 +10299,7 @@
         <v>35</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>35</v>
@@ -10318,10 +10322,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10329,10 +10333,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -10341,19 +10345,19 @@
         <v>35</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10403,19 +10407,19 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>35</v>
@@ -10424,7 +10428,7 @@
         <v>35</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>35</v>
@@ -10433,24 +10437,24 @@
         <v>35</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AS64" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10461,7 +10465,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -10470,26 +10474,26 @@
         <v>35</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>35</v>
@@ -10534,19 +10538,19 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>35</v>
@@ -10555,7 +10559,7 @@
         <v>35</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -10564,24 +10568,24 @@
         <v>35</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AQ65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AS65" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10589,13 +10593,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>35</v>
@@ -10604,13 +10608,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10637,11 +10641,11 @@
         <v>35</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>35</v>
@@ -10659,31 +10663,31 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>35</v>
@@ -10692,21 +10696,21 @@
         <v>35</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AS66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10714,13 +10718,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>35</v>
@@ -10729,19 +10733,19 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10766,11 +10770,11 @@
         <v>35</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -10788,32 +10792,32 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN67" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
       </c>
@@ -10821,21 +10825,21 @@
         <v>35</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AS67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10843,13 +10847,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>35</v>
@@ -10858,13 +10862,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10915,31 +10919,31 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
@@ -10948,7 +10952,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10959,10 +10963,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10973,7 +10977,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -10985,13 +10989,13 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11042,13 +11046,13 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
@@ -11063,7 +11067,7 @@
         <v>35</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>35</v>
@@ -11086,14 +11090,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -11112,16 +11116,16 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11159,19 +11163,19 @@
         <v>35</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -11183,7 +11187,7 @@
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>35</v>
@@ -11192,7 +11196,7 @@
         <v>35</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>35</v>
@@ -11215,10 +11219,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11229,7 +11233,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>35</v>
@@ -11238,19 +11242,19 @@
         <v>35</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11300,19 +11304,19 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
@@ -11321,7 +11325,7 @@
         <v>35</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
@@ -11336,7 +11340,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11344,10 +11348,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11358,7 +11362,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -11367,19 +11371,19 @@
         <v>35</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11405,13 +11409,13 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -11429,19 +11433,19 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
@@ -11450,7 +11454,7 @@
         <v>35</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>35</v>
@@ -11473,10 +11477,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11487,7 +11491,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>35</v>
@@ -11496,19 +11500,19 @@
         <v>35</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11558,19 +11562,19 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
@@ -11579,7 +11583,7 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>35</v>
@@ -11594,7 +11598,7 @@
         <v>35</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11602,10 +11606,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11616,7 +11620,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>35</v>
@@ -11625,19 +11629,19 @@
         <v>35</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11687,19 +11691,19 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -11708,7 +11712,7 @@
         <v>35</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>35</v>
@@ -11731,10 +11735,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11757,16 +11761,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11816,7 +11820,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11828,19 +11832,19 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>35</v>
@@ -11849,10 +11853,10 @@
         <v>35</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>
